--- a/Data/StatusReport.xlsx
+++ b/Data/StatusReport.xlsx
@@ -54,6 +54,36 @@
   </x:si>
   <x:si>
     <x:t>Successful</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Black and White Simple Invoice-6.pdf_20250107183309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 19:52:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Black and White Simple Invoice-8.pdf_20250107183435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 19:52:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Black and White Simple Invoice-4.pdf_20250107183908</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 19:52:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Black and White Simple Invoice-1.pdf_20250107191051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 19:52:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Failed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 19:53:15</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -485,6 +515,61 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Data/StatusReport.xlsx
+++ b/Data/StatusReport.xlsx
@@ -84,6 +84,33 @@
   </x:si>
   <x:si>
     <x:t>01/07/2025 19:53:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Black and White Simple Invoice-6.pdf_20250107195628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 19:59:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Black and White Simple Invoice-6.pdf_20250107195639</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 19:59:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 20:02:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 20:04:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 20:29:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 20:39:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 20:42:09</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -570,6 +597,83 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Data/StatusReport.xlsx
+++ b/Data/StatusReport.xlsx
@@ -111,6 +111,39 @@
   </x:si>
   <x:si>
     <x:t>01/07/2025 20:42:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FacturaBuna.pdf_20250107210638</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 21:23:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Black and White Simple Invoice-7.pdf_20250107210648</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 21:23:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 21:23:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FacturaBuna2.pdf_20250107213623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 22:23:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FacturaBuna.pdf_20250107213634</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 22:25:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 22:26:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/07/2025 22:27:04</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -674,6 +707,83 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
